--- a/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,167 +452,167 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1950</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2460</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>540</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1050</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1450</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>510</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45390</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1440</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45404</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45418</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1020</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45460</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45467</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>700</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45488</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>140</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45495</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45502</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>620</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45509</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>160</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45516</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45523</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>140</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45530</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>320</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45537</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45544</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>140</v>
@@ -620,49 +620,169 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45558</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>140</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45565</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45572</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45586</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>200</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45593</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45621</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B28" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B43" t="n">
         <v>80</v>
       </c>
     </row>
@@ -677,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,89 +819,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>4950</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1050</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2100</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1860</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1020</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>940</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>860</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>640</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>320</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>80</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,255 +460,255 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>390</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>630</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>470</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>570</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>810</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>740</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1950</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2460</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>540</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>1050</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>1450</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>510</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1440</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>1020</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>700</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>620</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>140</v>
@@ -716,73 +716,49 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>320</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45592.99999999999</v>
-      </c>
-      <c r="B41" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B42" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45627.99999999999</v>
-      </c>
-      <c r="B43" t="n">
         <v>80</v>
       </c>
     </row>
@@ -830,7 +806,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -894,7 +870,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2100</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12">

--- a/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -789,7 +790,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -935,6 +936,705 @@
       </c>
       <c r="B19" t="n">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>593</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-62.93950325164867</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1264.344665259001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>583</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-83.02971796729338</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1233.902746761944</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>580</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-70.07431571030288</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1197.138249649751</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>573</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-108.7435777348074</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1232.346401785927</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>570</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-66.28885912713567</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1229.287913963558</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>563</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-113.2339786579112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1231.710553329531</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>557</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-112.4263613318796</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1205.303691645433</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>550</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-18.50104045965723</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1207.089562546552</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-111.6697959108155</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1199.298565453431</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>544</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-118.9476168946281</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1197.284356244044</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>537</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-66.11948029605236</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1184.593297876329</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>534</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-156.0847081109492</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1204.781940614867</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>524</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-116.0181480517459</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1212.49863537655</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>514</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-136.9582356833643</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1171.837884718634</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>504</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-136.4313365943453</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1146.513248125533</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>498</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-171.8071209043906</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1166.33276994776</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>491</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-158.6341887479822</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1202.925204447414</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>488</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-204.0417059941828</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1191.156221447827</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>475</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-207.1105214298225</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1162.930957947634</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>458</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-193.5486830990327</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1117.406974419842</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>452</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-232.0131004079131</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1168.922455432686</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>445</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-169.4695211756835</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1140.837314965748</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>426</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-212.060840160649</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1137.088415989238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>422</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-257.4527381016355</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1092.466678709995</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>413</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-217.5935804741484</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1087.080664183621</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>409</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-248.5586900739114</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1090.214211840718</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>406</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-307.8310579176223</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1077.786382384677</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>403</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-230.0301926785692</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1050.545829230424</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>399</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-283.5692232567208</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1041.098910764783</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>396</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-210.5214908765584</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1077.188349278137</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>393</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-290.5703355840645</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1076.239405427304</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>390</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-286.4939248543017</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1036.453609678717</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>386</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-274.7145852753623</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1072.964524835972</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>380</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-283.6841040174029</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1047.237364493894</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>377</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-299.4421041123945</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1030.031172517364</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>373</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-255.3274411018787</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1044.594688545899</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>367</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-301.3083450900838</v>
+      </c>
+      <c r="D38" t="n">
+        <v>998.4107204421884</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>363</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-275.5098684544466</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1039.141649326198</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>350</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-321.5655221517194</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1074.39391302218</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>347</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-310.5084744341403</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1008.75894036113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>344</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-344.3780098720625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>982.0988011955405</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>340</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-312.2170545491732</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1028.738249804615</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>337</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-348.1851873725814</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1021.420759687253</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>334</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-325.7023739074555</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1024.416325008792</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>331</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-277.8196854055672</v>
+      </c>
+      <c r="D46" t="n">
+        <v>954.1532434876351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>327</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-323.2163249094673</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1003.213446174896</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>324</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-304.8445941271431</v>
+      </c>
+      <c r="D48" t="n">
+        <v>979.1538058675351</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
@@ -949,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,16 +968,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -986,12 +976,6 @@
       <c r="B2" t="n">
         <v>593</v>
       </c>
-      <c r="C2" t="n">
-        <v>-62.93950325164867</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1264.344665259001</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1000,12 +984,6 @@
       <c r="B3" t="n">
         <v>583</v>
       </c>
-      <c r="C3" t="n">
-        <v>-83.02971796729338</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1233.902746761944</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1014,12 +992,6 @@
       <c r="B4" t="n">
         <v>580</v>
       </c>
-      <c r="C4" t="n">
-        <v>-70.07431571030288</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1197.138249649751</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1028,12 +1000,6 @@
       <c r="B5" t="n">
         <v>573</v>
       </c>
-      <c r="C5" t="n">
-        <v>-108.7435777348074</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1232.346401785927</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1042,12 +1008,6 @@
       <c r="B6" t="n">
         <v>570</v>
       </c>
-      <c r="C6" t="n">
-        <v>-66.28885912713567</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1229.287913963558</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1056,12 +1016,6 @@
       <c r="B7" t="n">
         <v>563</v>
       </c>
-      <c r="C7" t="n">
-        <v>-113.2339786579112</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1231.710553329531</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1070,12 +1024,6 @@
       <c r="B8" t="n">
         <v>557</v>
       </c>
-      <c r="C8" t="n">
-        <v>-112.4263613318796</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1205.303691645433</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1084,12 +1032,6 @@
       <c r="B9" t="n">
         <v>550</v>
       </c>
-      <c r="C9" t="n">
-        <v>-18.50104045965723</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1207.089562546552</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1098,12 +1040,6 @@
       <c r="B10" t="n">
         <v>547</v>
       </c>
-      <c r="C10" t="n">
-        <v>-111.6697959108155</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1199.298565453431</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1112,12 +1048,6 @@
       <c r="B11" t="n">
         <v>544</v>
       </c>
-      <c r="C11" t="n">
-        <v>-118.9476168946281</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1197.284356244044</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1126,12 +1056,6 @@
       <c r="B12" t="n">
         <v>537</v>
       </c>
-      <c r="C12" t="n">
-        <v>-66.11948029605236</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1184.593297876329</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1140,12 +1064,6 @@
       <c r="B13" t="n">
         <v>534</v>
       </c>
-      <c r="C13" t="n">
-        <v>-156.0847081109492</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1204.781940614867</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1154,12 +1072,6 @@
       <c r="B14" t="n">
         <v>524</v>
       </c>
-      <c r="C14" t="n">
-        <v>-116.0181480517459</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1212.49863537655</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1168,12 +1080,6 @@
       <c r="B15" t="n">
         <v>514</v>
       </c>
-      <c r="C15" t="n">
-        <v>-136.9582356833643</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1171.837884718634</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1182,12 +1088,6 @@
       <c r="B16" t="n">
         <v>504</v>
       </c>
-      <c r="C16" t="n">
-        <v>-136.4313365943453</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1146.513248125533</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1196,12 +1096,6 @@
       <c r="B17" t="n">
         <v>498</v>
       </c>
-      <c r="C17" t="n">
-        <v>-171.8071209043906</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1166.33276994776</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1210,12 +1104,6 @@
       <c r="B18" t="n">
         <v>491</v>
       </c>
-      <c r="C18" t="n">
-        <v>-158.6341887479822</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1202.925204447414</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1224,12 +1112,6 @@
       <c r="B19" t="n">
         <v>488</v>
       </c>
-      <c r="C19" t="n">
-        <v>-204.0417059941828</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1191.156221447827</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1238,12 +1120,6 @@
       <c r="B20" t="n">
         <v>475</v>
       </c>
-      <c r="C20" t="n">
-        <v>-207.1105214298225</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1162.930957947634</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1252,12 +1128,6 @@
       <c r="B21" t="n">
         <v>458</v>
       </c>
-      <c r="C21" t="n">
-        <v>-193.5486830990327</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1117.406974419842</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1266,12 +1136,6 @@
       <c r="B22" t="n">
         <v>452</v>
       </c>
-      <c r="C22" t="n">
-        <v>-232.0131004079131</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1168.922455432686</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1280,12 +1144,6 @@
       <c r="B23" t="n">
         <v>445</v>
       </c>
-      <c r="C23" t="n">
-        <v>-169.4695211756835</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1140.837314965748</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1294,12 +1152,6 @@
       <c r="B24" t="n">
         <v>426</v>
       </c>
-      <c r="C24" t="n">
-        <v>-212.060840160649</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1137.088415989238</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1308,12 +1160,6 @@
       <c r="B25" t="n">
         <v>422</v>
       </c>
-      <c r="C25" t="n">
-        <v>-257.4527381016355</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1092.466678709995</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1322,12 +1168,6 @@
       <c r="B26" t="n">
         <v>413</v>
       </c>
-      <c r="C26" t="n">
-        <v>-217.5935804741484</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1087.080664183621</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1336,12 +1176,6 @@
       <c r="B27" t="n">
         <v>409</v>
       </c>
-      <c r="C27" t="n">
-        <v>-248.5586900739114</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1090.214211840718</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1350,12 +1184,6 @@
       <c r="B28" t="n">
         <v>406</v>
       </c>
-      <c r="C28" t="n">
-        <v>-307.8310579176223</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1077.786382384677</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1364,12 +1192,6 @@
       <c r="B29" t="n">
         <v>403</v>
       </c>
-      <c r="C29" t="n">
-        <v>-230.0301926785692</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1050.545829230424</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1378,12 +1200,6 @@
       <c r="B30" t="n">
         <v>399</v>
       </c>
-      <c r="C30" t="n">
-        <v>-283.5692232567208</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1041.098910764783</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1392,12 +1208,6 @@
       <c r="B31" t="n">
         <v>396</v>
       </c>
-      <c r="C31" t="n">
-        <v>-210.5214908765584</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1077.188349278137</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1406,12 +1216,6 @@
       <c r="B32" t="n">
         <v>393</v>
       </c>
-      <c r="C32" t="n">
-        <v>-290.5703355840645</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1076.239405427304</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1420,12 +1224,6 @@
       <c r="B33" t="n">
         <v>390</v>
       </c>
-      <c r="C33" t="n">
-        <v>-286.4939248543017</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1036.453609678717</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1434,12 +1232,6 @@
       <c r="B34" t="n">
         <v>386</v>
       </c>
-      <c r="C34" t="n">
-        <v>-274.7145852753623</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1072.964524835972</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1448,12 +1240,6 @@
       <c r="B35" t="n">
         <v>380</v>
       </c>
-      <c r="C35" t="n">
-        <v>-283.6841040174029</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1047.237364493894</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1462,12 +1248,6 @@
       <c r="B36" t="n">
         <v>377</v>
       </c>
-      <c r="C36" t="n">
-        <v>-299.4421041123945</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1030.031172517364</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1476,12 +1256,6 @@
       <c r="B37" t="n">
         <v>373</v>
       </c>
-      <c r="C37" t="n">
-        <v>-255.3274411018787</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1044.594688545899</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1490,12 +1264,6 @@
       <c r="B38" t="n">
         <v>367</v>
       </c>
-      <c r="C38" t="n">
-        <v>-301.3083450900838</v>
-      </c>
-      <c r="D38" t="n">
-        <v>998.4107204421884</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1504,12 +1272,6 @@
       <c r="B39" t="n">
         <v>363</v>
       </c>
-      <c r="C39" t="n">
-        <v>-275.5098684544466</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1039.141649326198</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1518,12 +1280,6 @@
       <c r="B40" t="n">
         <v>350</v>
       </c>
-      <c r="C40" t="n">
-        <v>-321.5655221517194</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1074.39391302218</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1532,12 +1288,6 @@
       <c r="B41" t="n">
         <v>347</v>
       </c>
-      <c r="C41" t="n">
-        <v>-310.5084744341403</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1008.75894036113</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1546,12 +1296,6 @@
       <c r="B42" t="n">
         <v>344</v>
       </c>
-      <c r="C42" t="n">
-        <v>-344.3780098720625</v>
-      </c>
-      <c r="D42" t="n">
-        <v>982.0988011955405</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1560,12 +1304,6 @@
       <c r="B43" t="n">
         <v>340</v>
       </c>
-      <c r="C43" t="n">
-        <v>-312.2170545491732</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1028.738249804615</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1574,12 +1312,6 @@
       <c r="B44" t="n">
         <v>337</v>
       </c>
-      <c r="C44" t="n">
-        <v>-348.1851873725814</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1021.420759687253</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1588,12 +1320,6 @@
       <c r="B45" t="n">
         <v>334</v>
       </c>
-      <c r="C45" t="n">
-        <v>-325.7023739074555</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1024.416325008792</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1602,12 +1328,6 @@
       <c r="B46" t="n">
         <v>331</v>
       </c>
-      <c r="C46" t="n">
-        <v>-277.8196854055672</v>
-      </c>
-      <c r="D46" t="n">
-        <v>954.1532434876351</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1616,12 +1336,6 @@
       <c r="B47" t="n">
         <v>327</v>
       </c>
-      <c r="C47" t="n">
-        <v>-323.2163249094673</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1003.213446174896</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1629,12 +1343,6 @@
       </c>
       <c r="B48" t="n">
         <v>324</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-304.8445941271431</v>
-      </c>
-      <c r="D48" t="n">
-        <v>979.1538058675351</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8K441T1_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,6 +763,14 @@
         <v>80</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -774,7 +782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,6 +946,14 @@
         <v>80</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -949,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,7 +990,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3">
@@ -982,7 +998,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>583</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4">
@@ -990,7 +1006,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +1014,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6">
@@ -1006,7 +1022,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7">
@@ -1014,7 +1030,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8">
@@ -1022,7 +1038,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9">
@@ -1030,7 +1046,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
@@ -1038,7 +1054,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11">
@@ -1046,7 +1062,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12">
@@ -1054,7 +1070,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13">
@@ -1062,7 +1078,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14">
@@ -1070,7 +1086,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15">
@@ -1078,7 +1094,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16">
@@ -1086,7 +1102,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17">
@@ -1094,7 +1110,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18">
@@ -1102,7 +1118,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19">
@@ -1110,7 +1126,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20">
@@ -1118,7 +1134,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21">
@@ -1126,7 +1142,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22">
@@ -1134,7 +1150,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23">
@@ -1142,7 +1158,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24">
@@ -1150,7 +1166,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25">
@@ -1158,7 +1174,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26">
@@ -1166,7 +1182,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>413</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27">
@@ -1174,7 +1190,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28">
@@ -1182,7 +1198,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29">
@@ -1190,7 +1206,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30">
@@ -1198,7 +1214,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31">
@@ -1206,7 +1222,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32">
@@ -1214,7 +1230,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33">
@@ -1222,7 +1238,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34">
@@ -1230,7 +1246,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35">
@@ -1238,7 +1254,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36">
@@ -1246,7 +1262,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37">
@@ -1254,7 +1270,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38">
@@ -1262,7 +1278,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39">
@@ -1270,7 +1286,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>363</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
@@ -1278,71 +1294,79 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>347</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>344</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>340</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>337</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>334</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>331</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>327</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>324</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
